--- a/docs/data/news_2026-02-04.xlsx
+++ b/docs/data/news_2026-02-04.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -885,9 +885,32 @@
         <v>2026-02-04T04:03:38.658Z</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B22" t="str">
+        <v>https://cyprus-mail.com/2026/02/04/uk-police-launch-investigation-into-mandelson-over-epstein-leaks-2</v>
+      </c>
+      <c r="C22" t="str">
+        <v>UK police launch investigation into Mandelson over Epstein leaks</v>
+      </c>
+      <c r="D22" t="str">
+        <v>英国警方调查曼德尔森与爱泼斯坦泄密案的关联，引发关注。</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G22" t="str">
+        <v>2026-02-04T06:36:12.373Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G22"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/docs/data/news_2026-02-04.xlsx
+++ b/docs/data/news_2026-02-04.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -908,9 +908,55 @@
         <v>2026-02-04T06:36:12.373Z</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B23" t="str">
+        <v>https://www.zerohedge.com/geopolitical/rutte-says-post-ukraine-peace-include-nato-boots-air-land-sea</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Rutte Says Post-Ukraine Peace To Include NATO Boots By Air, Land &amp; Sea</v>
+      </c>
+      <c r="D23" t="str">
+        <v>分析失败</v>
+      </c>
+      <c r="E23" t="str">
+        <v/>
+      </c>
+      <c r="F23" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G23" t="str">
+        <v>2026-02-04T08:27:23.214Z</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Cyprus-URGENT</v>
+      </c>
+      <c r="B24" t="str">
+        <v>https://www.aljazeera.com/news/2026/2/4/greece-woos-israel-for-joint-production-of-weapons-systems?traffic_source=rss</v>
+      </c>
+      <c r="C24" t="str">
+        <v>‘Heavily armed’: Greece, Israel boost military ties amid Gaza genocide</v>
+      </c>
+      <c r="D24" t="str">
+        <v>在加沙冲突背景下，希腊和以色列加强军事合作，提升两国武装力量。</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G24" t="str">
+        <v>2026-02-04T08:27:23.214Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G22"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G24"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/docs/data/news_2026-02-04.xlsx
+++ b/docs/data/news_2026-02-04.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -954,9 +954,32 @@
         <v>2026-02-04T08:27:23.214Z</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Cyprus-URGENT</v>
+      </c>
+      <c r="B25" t="str">
+        <v>https://www.aljazeera.com/news/2026/2/4/israel-suspends-evacuation-of-palestinians-via-rafah-crossing-red-crescent?traffic_source=rss</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Israel kills 18 people, one of the deadliest attacks since Gaza ‘truce’</v>
+      </c>
+      <c r="D25" t="str">
+        <v>以色列在加沙发动袭击，造成18人死亡，是停火协议以来最致命的袭击之一，可能升级冲突。</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G25" t="str">
+        <v>2026-02-04T10:28:05.731Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G24"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G25"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/docs/data/news_2026-02-04.xlsx
+++ b/docs/data/news_2026-02-04.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -977,9 +977,147 @@
         <v>2026-02-04T10:28:05.731Z</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B26" t="str">
+        <v>https://www.theguardian.com/us-news/live/2026/feb/04/donald-trump-epstein-files-us-politics-live-latest-news-updates</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Trump calls for Americans to ‘move on’ from Epstein files – US politics live</v>
+      </c>
+      <c r="D26" t="str">
+        <v>分析失败</v>
+      </c>
+      <c r="E26" t="str">
+        <v/>
+      </c>
+      <c r="F26" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G26" t="str">
+        <v>2026-02-04T12:32:20.968Z</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B27" t="str">
+        <v>https://in-cyprus.philenews.com/local/dna-confirms-avdimou-beach-body-russian-man-vladislav-baumgertner/</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Body of missing Russian tycoon Vladislav Baumgertner identified in Cyprus</v>
+      </c>
+      <c r="D27" t="str">
+        <v>在塞浦路斯发现失踪的俄罗斯大亨Vladislav Baumgertner的尸体，死因不明，引发关注。</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G27" t="str">
+        <v>2026-02-04T12:32:20.968Z</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B28" t="str">
+        <v>https://cyprus-mail.com/2026/02/04/new-arms-race-looms-as-clock-ticks-down-on-last-russia-us-nuclear-treaty</v>
+      </c>
+      <c r="C28" t="str">
+        <v>New arms race looms as clock ticks down on last Russia-US nuclear treaty</v>
+      </c>
+      <c r="D28" t="str">
+        <v>分析失败</v>
+      </c>
+      <c r="E28" t="str">
+        <v/>
+      </c>
+      <c r="F28" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G28" t="str">
+        <v>2026-02-04T12:32:20.968Z</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B29" t="str">
+        <v>https://in-cyprus.philenews.com/international/on-this-day-facebook-is-founded-by-mark-zuckerberg-in-2004/</v>
+      </c>
+      <c r="C29" t="str">
+        <v>On this day: Facebook is founded by Mark Zuckerberg in 2004</v>
+      </c>
+      <c r="D29" t="str">
+        <v>2004年，马克·扎克伯格创立了Facebook，开启了社交媒体的新时代，改变了全球的沟通方式。</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G29" t="str">
+        <v>2026-02-04T12:32:20.968Z</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B30" t="str">
+        <v>https://in-cyprus.philenews.com/international/ukraine-russia-us-brokered-talks-abu-dhabi/</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Ukraine, Russia resume U.S.-brokered talks in Abu Dhabi</v>
+      </c>
+      <c r="D30" t="str">
+        <v>在美国斡旋下，乌克兰和俄罗斯在阿布扎比恢复谈判，寻求解决冲突途径。</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G30" t="str">
+        <v>2026-02-04T12:32:20.968Z</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B31" t="str">
+        <v>https://www.theguardian.com/world/2026/feb/04/israeli-strikes-gaza-patient-crossings-rafah-halted</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Israeli strikes kill 18 in Gaza and patient crossings at Rafah halted, Palestinian officials say</v>
+      </c>
+      <c r="D31" t="str">
+        <v>据巴勒斯坦官员称，以色列袭击加沙造成18人死亡，拉法口岸的病人过境被停止。</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G31" t="str">
+        <v>2026-02-04T12:32:20.968Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G25"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G31"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/docs/data/news_2026-02-04.xlsx
+++ b/docs/data/news_2026-02-04.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1115,9 +1115,55 @@
         <v>2026-02-04T12:32:20.968Z</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B32" t="str">
+        <v>https://www.zerohedge.com/precious-metals/gold-investors-remember-1933</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Gold Investors: Remember 1933</v>
+      </c>
+      <c r="D32" t="str">
+        <v>文章可能提醒黄金投资者关注1933年美国政府取缔私人持有黄金的历史，暗示潜在风险或机遇。</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G32" t="str">
+        <v>2026-02-04T14:35:08.449Z</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B33" t="str">
+        <v>https://www.zerohedge.com/geopolitical/united-nations-warns-its-going-broke-without-us-financial-support</v>
+      </c>
+      <c r="C33" t="str">
+        <v>United Nations Warns That It's Going Broke Without US Financial Support</v>
+      </c>
+      <c r="D33" t="str">
+        <v>联合国警告称，由于美国停止财政支持，联合国面临破产危机，可能影响其全球行动。</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G33" t="str">
+        <v>2026-02-04T14:35:08.449Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G33"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/docs/data/news_2026-02-04.xlsx
+++ b/docs/data/news_2026-02-04.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1161,9 +1161,78 @@
         <v>2026-02-04T14:35:08.449Z</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B34" t="str">
+        <v>https://cyprus-mail.com/2026/02/04/starmer-expresses-regret-over-mandelson-says-he-lied-repeatedly</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Starmer expresses regret over Mandelson, says ex-ambassador ‘lied repeatedly’</v>
+      </c>
+      <c r="D34" t="str">
+        <v>Starmer对与Mandelson的关系表示遗憾，并指责前大使多次撒谎，暗示工党内部存在分歧。</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G34" t="str">
+        <v>2026-02-04T16:32:24.167Z</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B35" t="str">
+        <v>https://arstechnica.com/space/2026/02/russian-spy-satellites-have-intercepted-eu-communications-satellites/</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Russian spy satellites have intercepted EU communications satellites</v>
+      </c>
+      <c r="D35" t="str">
+        <v>报道称俄罗斯间谍卫星拦截了欧盟通信卫星信号，可能泄露敏感信息。</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G35" t="str">
+        <v>2026-02-04T16:32:24.167Z</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B36" t="str">
+        <v>https://cyprus-mail.com/2026/02/04/ukraine-russia-begin-second-round-of-us-brokered-peace-talks-in-abu-dhabi</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Ukraine, Russia begin second round of US-brokered peace talks in Abu Dhabi</v>
+      </c>
+      <c r="D36" t="str">
+        <v>在阿布扎比，乌克兰和俄罗斯在美国斡旋下开始第二轮和平谈判，旨在缓解冲突。</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G36" t="str">
+        <v>2026-02-04T16:32:24.167Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G33"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G36"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/docs/data/news_2026-02-04.xlsx
+++ b/docs/data/news_2026-02-04.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1230,9 +1230,78 @@
         <v>2026-02-04T16:32:24.167Z</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B37" t="str">
+        <v>https://www.rt.com/news/631980-us-eu-censorship/?utm_source=rss&amp;utm_medium=rss&amp;utm_campaign=RSS</v>
+      </c>
+      <c r="C37" t="str">
+        <v xml:space="preserve">The US has accused the EU of censorship: Here’s how the bloc’s consensus machine works </v>
+      </c>
+      <c r="D37" t="str">
+        <v>美国指责欧盟审查制度，该新闻探讨了欧盟共识机制的运作方式，或影响美欧贸易及数字政策。</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
+      </c>
+      <c r="F37" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G37" t="str">
+        <v>2026-02-04T18:33:13.122Z</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B38" t="str">
+        <v>https://www.zerohedge.com/markets/nano-nuclear-founder-shawn-ryan-show</v>
+      </c>
+      <c r="C38" t="str">
+        <v>'Nearly Indestructible' Fuel: Nano Nuclear CEO Talks 'Laser Enrichment' On Shawn Ryan Show</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Nano Nuclear CEO在Shawn Ryan Show上讨论了“激光富集”技术，声称其燃料“几乎坚不可摧”。</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G38" t="str">
+        <v>2026-02-04T18:33:13.122Z</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Cyprus-URGENT</v>
+      </c>
+      <c r="B39" t="str">
+        <v>https://www.bloomberg.com/news/articles/2026-02-04/us-military-hits-islamic-state-targets-in-syria-over-past-week</v>
+      </c>
+      <c r="C39" t="str">
+        <v>US Military Hits Islamic State Targets in Syria Over Past Week</v>
+      </c>
+      <c r="D39" t="str">
+        <v>分析失败</v>
+      </c>
+      <c r="E39" t="str">
+        <v/>
+      </c>
+      <c r="F39" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G39" t="str">
+        <v>2026-02-04T18:33:13.122Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G36"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G39"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/docs/data/news_2026-02-04.xlsx
+++ b/docs/data/news_2026-02-04.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1299,9 +1299,78 @@
         <v>2026-02-04T18:33:13.122Z</v>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B40" t="str">
+        <v>https://www.gdacs.org/report.aspx?eventtype=EQ&amp;eventid=1522917</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Green earthquake (Magnitude 5.5M, Depth:21.435km) in Japan 04/02/2026 18:20 UTC, 6 thousand in MMI IV.</v>
+      </c>
+      <c r="D40" t="str">
+        <v>分析失败</v>
+      </c>
+      <c r="E40" t="str">
+        <v/>
+      </c>
+      <c r="F40" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G40" t="str">
+        <v>2026-02-04T20:21:10.138Z</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B41" t="str">
+        <v>https://www.zerohedge.com/energy/putin-touts-energy-ties-china-india-still-dodging-issue-russian-oil-ban</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Putin Touts Energy Ties With China, While India Still Dodges Issue Of Russian Oil Ban</v>
+      </c>
+      <c r="D41" t="str">
+        <v>分析失败</v>
+      </c>
+      <c r="E41" t="str">
+        <v/>
+      </c>
+      <c r="F41" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G41" t="str">
+        <v>2026-02-04T20:21:10.138Z</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Cyprus-URGENT</v>
+      </c>
+      <c r="B42" t="str">
+        <v>https://www.militarytimes.com/news/your-military/2026/02/04/us-military-conducts-strikes-on-islamic-state-members-in-syria/</v>
+      </c>
+      <c r="C42" t="str">
+        <v>US military conducts strikes on Islamic State members in Syria</v>
+      </c>
+      <c r="D42" t="str">
+        <v>分析失败</v>
+      </c>
+      <c r="E42" t="str">
+        <v/>
+      </c>
+      <c r="F42" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G42" t="str">
+        <v>2026-02-04T20:21:10.138Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G39"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G42"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/docs/data/news_2026-02-04.xlsx
+++ b/docs/data/news_2026-02-04.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1368,9 +1368,32 @@
         <v>2026-02-04T20:21:10.138Z</v>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B43" t="str">
+        <v>https://www.rt.com/russia/631853-peace-wont-save-ukraine/?utm_source=rss&amp;utm_medium=rss&amp;utm_campaign=RSS</v>
+      </c>
+      <c r="C43" t="str">
+        <v>Peace won’t save Ukraine: What comes after the war may be worse</v>
+      </c>
+      <c r="D43" t="str">
+        <v>文章认为即使乌克兰赢得和平，战后重建和社会问题可能带来更严峻的挑战，需要警惕。</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+      <c r="F43" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G43" t="str">
+        <v>2026-02-04T22:14:56.713Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G42"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G43"/>
   </ignoredErrors>
 </worksheet>
 </file>